--- a/biology/Zoologie/Gravisauria/Gravisauria.xlsx
+++ b/biology/Zoologie/Gravisauria/Gravisauria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Gravisauria forment un clade éteint de dinosaures sauropodes, regroupant les Eusauropoda, et des genres proches ou inclus dans la famille des Vulcanodontidae. Ils ont vécu au cours du Jurassique et du Crétacé en Europe et en Afrique.
 </t>
@@ -511,10 +523,12 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le clade des Gravisauria a été créé par les paléontologues français Ronan Allain et marocaine Najat Aquesbi en 2008 après la découverte et la description en 2004, par ces mêmes auteurs, d'un nouveau sauropode au Maroc : Tazoudasaurus[2],[1],[3].
-Leur analyse phylogénétique place les genres Tazoudasaurus dans la famille des Vulcanodontidae. Ils regroupent ensuite les Vulcanodontidae et leur groupe frère des Eusauropoda, ainsi que quelques genres plus basaux comme Antetonitrus, Gongxianosaurus et Isanosaurus (tous aujourd’hui considérés comme des sauropodes basaux), dans un nouveau taxon, les Gravisauria qu'ils définissent comme incluant le dernier ancêtre commun des genres Tazoudasaurus et Saltasaurus (Bonaparte et Powell, 1980) et tous leurs descendants[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le clade des Gravisauria a été créé par les paléontologues français Ronan Allain et marocaine Najat Aquesbi en 2008 après la découverte et la description en 2004, par ces mêmes auteurs, d'un nouveau sauropode au Maroc : Tazoudasaurus.
+Leur analyse phylogénétique place les genres Tazoudasaurus dans la famille des Vulcanodontidae. Ils regroupent ensuite les Vulcanodontidae et leur groupe frère des Eusauropoda, ainsi que quelques genres plus basaux comme Antetonitrus, Gongxianosaurus et Isanosaurus (tous aujourd’hui considérés comme des sauropodes basaux), dans un nouveau taxon, les Gravisauria qu'ils définissent comme incluant le dernier ancêtre commun des genres Tazoudasaurus et Saltasaurus (Bonaparte et Powell, 1980) et tous leurs descendants.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2019, une analyse phylogénétique réalisée par Müller, a fourni le cladogramme suivant qui montre la position des Gravisauria au sein des Sauropoda[4] :
-Le cladogramme réalisé par Nair et Salisbury en 2012 montre les relations entre les Gravisauria. À la différence de celui de R. Allain et ses collègues (2008), il ne conserve pas la famille des Vulcanodontidae[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2019, une analyse phylogénétique réalisée par Müller, a fourni le cladogramme suivant qui montre la position des Gravisauria au sein des Sauropoda :
+Le cladogramme réalisé par Nair et Salisbury en 2012 montre les relations entre les Gravisauria. À la différence de celui de R. Allain et ses collègues (2008), il ne conserve pas la famille des Vulcanodontidae :
 </t>
         </is>
       </c>
